--- a/medhack/Disease.xlsx
+++ b/medhack/Disease.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbg4clj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Src\designProto\medhack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="176">
   <si>
     <t>ima</t>
   </si>
@@ -558,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -576,6 +577,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -698,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,6 +724,11 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1008,9 +1020,10 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,8 +1033,12 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="str">
+        <f>"("""&amp;A1&amp;""","""&amp;B1&amp;""","&amp;C1&amp;"),"</f>
+        <v>("ima","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,8 +1048,12 @@
       <c r="C2" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">"("""&amp;A2&amp;""","""&amp;B2&amp;""","&amp;C2&amp;"),"</f>
+        <v>("ima","ahc - ima",0.75),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,8 +1063,12 @@
       <c r="C3" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - ima",0.75),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1078,12 @@
       <c r="C4" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - arterite",0.75),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1093,12 @@
       <c r="C5" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - cardiopatii valvulare",0.75),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,8 +1108,12 @@
       <c r="C6" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - dz",0.75),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1123,12 @@
       <c r="C7" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - anemie",0.75),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,8 +1138,12 @@
       <c r="C8" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - boli endocrine",0.75),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,8 +1153,12 @@
       <c r="C9" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - tulburari de ritm",0.75),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,8 +1168,12 @@
       <c r="C10" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - tulburari de conducere",0.75),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,8 +1183,12 @@
       <c r="C11" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - obezitate",0.75),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,8 +1198,12 @@
       <c r="C12" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","app - hta",0.75),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,8 +1213,12 @@
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","cmv - fumat",0.75),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,8 +1228,12 @@
       <c r="C14" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","cmv - sedentarism",0.75),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,8 +1243,12 @@
       <c r="C15" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","cmv - consum droguri",0.75),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,8 +1258,12 @@
       <c r="C16" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","cmv - stres",0.75),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1273,12 @@
       <c r="C17" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","durere localizare retrosternala",0.75),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,8 +1288,12 @@
       <c r="C18" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","debut simptomalogie - acut",0.75),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,8 +1303,12 @@
       <c r="C19" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","durere localizare toracica",0.75),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,8 +1318,12 @@
       <c r="C20" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","durere localizare precordiala",0.75),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,8 +1333,12 @@
       <c r="C21" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","durere localizare epigastrica",0.75),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1348,12 @@
       <c r="C22" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","iradiere durere",0.75),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,8 +1363,12 @@
       <c r="C23" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","durere caracter presiune",0.75),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,8 +1378,12 @@
       <c r="C24" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","durere caracter arsura",0.75),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,8 +1393,12 @@
       <c r="C25" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","durere durata - peste 20 min",0.75),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1408,12 @@
       <c r="C26" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","dispnee",0.75),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1423,12 @@
       <c r="C27" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","transpiratii",0.75),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,8 +1438,12 @@
       <c r="C28" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","greata",0.75),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,8 +1453,12 @@
       <c r="C29" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","varsaturi",0.75),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,8 +1468,12 @@
       <c r="C30" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","anxietate",0.75),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,8 +1483,12 @@
       <c r="C31" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","ameteli",0.75),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +1498,12 @@
       <c r="C32" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","fatigabilitate",0.75),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,8 +1513,12 @@
       <c r="C33" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","sincopa",0.75),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1528,12 @@
       <c r="C34" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","simptome pseudogripale",0.75),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,8 +1543,12 @@
       <c r="C35" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","palpitatii",0.75),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,8 +1558,12 @@
       <c r="C36" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","tahicardie",0.75),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,8 +1573,12 @@
       <c r="C37" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","bradicardie",0.75),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,8 +1588,12 @@
       <c r="C38" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","aritmie",0.75),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,8 +1603,12 @@
       <c r="C39" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","hipertensiune",0.75),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1449,8 +1618,12 @@
       <c r="C40" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","hipotensiune",0.75),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,8 +1633,12 @@
       <c r="C41" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","tahipnee",0.75),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1648,12 @@
       <c r="C42" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>("ima","febra",0.75),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -1482,8 +1663,12 @@
       <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1493,8 +1678,12 @@
       <c r="C44" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","debut - brusc",0.75),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1504,8 +1693,12 @@
       <c r="C45" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","ahc - avc",0.75),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
@@ -1515,8 +1708,12 @@
       <c r="C46" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","app - avc",0.75),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
@@ -1526,8 +1723,12 @@
       <c r="C47" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","app - hta",0.75),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
@@ -1537,8 +1738,12 @@
       <c r="C48" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","app - icc",0.75),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -1548,8 +1753,12 @@
       <c r="C49" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","app - ima",0.75),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>43</v>
       </c>
@@ -1559,8 +1768,12 @@
       <c r="C50" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","app - dz",0.75),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>43</v>
       </c>
@@ -1570,8 +1783,12 @@
       <c r="C51" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","app - obezitate",0.75),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>43</v>
       </c>
@@ -1581,8 +1798,12 @@
       <c r="C52" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","cmv - sedentarism",0.75),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
@@ -1592,8 +1813,12 @@
       <c r="C53" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","cmv - fumat",0.75),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
@@ -1603,8 +1828,12 @@
       <c r="C54" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","paralizie membru superior",0.75),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>43</v>
       </c>
@@ -1614,8 +1843,12 @@
       <c r="C55" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","paralizie membru inferior",0.75),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>43</v>
       </c>
@@ -1625,8 +1858,12 @@
       <c r="C56" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","paralizie faciala",0.75),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>43</v>
       </c>
@@ -1636,8 +1873,12 @@
       <c r="C57" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","pareza membru superior",0.75),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>43</v>
       </c>
@@ -1647,8 +1888,12 @@
       <c r="C58" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","pareza membru inferior",0.75),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>43</v>
       </c>
@@ -1658,8 +1903,12 @@
       <c r="C59" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","pareza faciala",0.75),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>43</v>
       </c>
@@ -1669,8 +1918,12 @@
       <c r="C60" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","tulburari de vorbire",0.75),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>43</v>
       </c>
@@ -1680,8 +1933,12 @@
       <c r="C61" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","diplopie",0.75),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>43</v>
       </c>
@@ -1691,8 +1948,12 @@
       <c r="C62" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","vedere incetosata",0.75),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>43</v>
       </c>
@@ -1702,8 +1963,12 @@
       <c r="C63" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","tulburari de coordonare",0.75),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>43</v>
       </c>
@@ -1713,8 +1978,12 @@
       <c r="C64" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","tulburari de echilibru",0.75),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>43</v>
       </c>
@@ -1724,8 +1993,12 @@
       <c r="C65" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>("avc","cefalee",0.75),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -1735,8 +2008,12 @@
       <c r="C66" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" si="1">"("""&amp;A66&amp;""","""&amp;B66&amp;""","&amp;C66&amp;"),"</f>
+        <v>("avc","parestezii membru superior",0.75),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>43</v>
       </c>
@@ -1746,8 +2023,12 @@
       <c r="C67" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","parestezii membru inferior",0.75),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>43</v>
       </c>
@@ -1757,8 +2038,12 @@
       <c r="C68" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","parestezii faciale",0.75),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>43</v>
       </c>
@@ -1768,8 +2053,12 @@
       <c r="C69" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","tulburari de mers",0.75),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>43</v>
       </c>
@@ -1779,8 +2068,12 @@
       <c r="C70" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","fatigabilitate",0.75),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>43</v>
       </c>
@@ -1790,8 +2083,12 @@
       <c r="C71" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","ameteli",0.75),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>43</v>
       </c>
@@ -1801,8 +2098,12 @@
       <c r="C72" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","vertij",0.75),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>43</v>
       </c>
@@ -1812,8 +2113,12 @@
       <c r="C73" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","sincopa",0.75),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2128,12 @@
       <c r="C74" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","greata",0.75),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>43</v>
       </c>
@@ -1834,8 +2143,12 @@
       <c r="C75" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","varsaturi",0.75),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>43</v>
       </c>
@@ -1845,8 +2158,12 @@
       <c r="C76" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","dificultati la inghitire",0.75),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>43</v>
       </c>
@@ -1856,8 +2173,12 @@
       <c r="C77" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","convulsii",0.75),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>43</v>
       </c>
@@ -1867,8 +2188,12 @@
       <c r="C78" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","alterarea starii de constienta",0.75),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>43</v>
       </c>
@@ -1878,8 +2203,12 @@
       <c r="C79" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","fotofobie",0.75),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>43</v>
       </c>
@@ -1889,8 +2218,12 @@
       <c r="C80" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","amauroza",0.75),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>43</v>
       </c>
@@ -1900,8 +2233,12 @@
       <c r="C81" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>("avc","coma",0.75),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>72</v>
       </c>
@@ -1911,8 +2248,12 @@
       <c r="C82" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>72</v>
       </c>
@@ -1922,8 +2263,12 @@
       <c r="C83" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","debut simptomalogie - acut",0.75),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>72</v>
       </c>
@@ -1933,8 +2278,12 @@
       <c r="C84" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - glomerulonefrita",0.75),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>72</v>
       </c>
@@ -1944,8 +2293,12 @@
       <c r="C85" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - lupus",0.75),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -1955,8 +2308,12 @@
       <c r="C86" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - vasculita",0.75),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
@@ -1966,8 +2323,12 @@
       <c r="C87" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - mielom multiplu",0.75),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>72</v>
       </c>
@@ -1977,8 +2338,12 @@
       <c r="C88" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - sclerodermie",0.75),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>72</v>
       </c>
@@ -1988,8 +2353,12 @@
       <c r="C89" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - cancer vezica urinara",0.75),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>72</v>
       </c>
@@ -1999,8 +2368,12 @@
       <c r="C90" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - hiperplazie prostata",0.75),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>72</v>
       </c>
@@ -2010,8 +2383,12 @@
       <c r="C91" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - litiaza renala",0.75),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>72</v>
       </c>
@@ -2021,8 +2398,12 @@
       <c r="C92" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - boala arteriala periferica",0.75),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>72</v>
       </c>
@@ -2032,8 +2413,12 @@
       <c r="C93" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - dz",0.75),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>72</v>
       </c>
@@ -2043,8 +2428,12 @@
       <c r="C94" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - hta",0.75),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>72</v>
       </c>
@@ -2054,8 +2443,12 @@
       <c r="C95" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - afectiuni renale",0.75),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>72</v>
       </c>
@@ -2065,8 +2458,12 @@
       <c r="C96" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - consum hipotensoare",0.75),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>72</v>
       </c>
@@ -2076,8 +2473,12 @@
       <c r="C97" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - consum aspirina/ains",0.75),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>72</v>
       </c>
@@ -2087,8 +2488,12 @@
       <c r="C98" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","app - insuficienta hepatica",0.75),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>72</v>
       </c>
@@ -2098,8 +2503,12 @@
       <c r="C99" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","cmv - consum alcool",0.75),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>72</v>
       </c>
@@ -2109,8 +2518,12 @@
       <c r="C100" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","cmv - consum droguri",0.75),</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>72</v>
       </c>
@@ -2120,8 +2533,12 @@
       <c r="C101" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","cmv - metale grele",0.75),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>72</v>
       </c>
@@ -2131,8 +2548,12 @@
       <c r="C102" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","anafilaxie",0.75),</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>72</v>
       </c>
@@ -2142,8 +2563,12 @@
       <c r="C103" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","arsuri",0.75),</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>72</v>
       </c>
@@ -2153,8 +2578,12 @@
       <c r="C104" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","dezhidratare",0.75),</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>72</v>
       </c>
@@ -2164,8 +2593,12 @@
       <c r="C105" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","ima",0.75),</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>72</v>
       </c>
@@ -2175,8 +2608,12 @@
       <c r="C106" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","infectie",0.75),</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>72</v>
       </c>
@@ -2186,8 +2623,12 @@
       <c r="C107" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","edeme membre inferioare",0.75),</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>72</v>
       </c>
@@ -2197,8 +2638,12 @@
       <c r="C108" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","dispnee",0.75),</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>72</v>
       </c>
@@ -2208,8 +2653,12 @@
       <c r="C109" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","durere localizare toracica",0.75),</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>72</v>
       </c>
@@ -2219,8 +2668,12 @@
       <c r="C110" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","fatigabilitate",0.75),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>72</v>
       </c>
@@ -2230,8 +2683,12 @@
       <c r="C111" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","alterarea starii de constienta",0.75),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>72</v>
       </c>
@@ -2241,8 +2698,12 @@
       <c r="C112" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","greata",0.75),</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>72</v>
       </c>
@@ -2252,8 +2713,12 @@
       <c r="C113" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","convulsii",0.75),</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>72</v>
       </c>
@@ -2263,8 +2728,12 @@
       <c r="C114" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","coma",0.75),</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>72</v>
       </c>
@@ -2274,8 +2743,12 @@
       <c r="C115" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira","durere caracter constrictiv",0.75),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>94</v>
       </c>
@@ -2285,8 +2758,12 @@
       <c r="C116" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>94</v>
       </c>
@@ -2296,8 +2773,12 @@
       <c r="C117" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","app - helmintoza",0.75),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>94</v>
       </c>
@@ -2307,8 +2788,12 @@
       <c r="C118" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","app - consum steroizi",0.75),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>94</v>
       </c>
@@ -2318,8 +2803,12 @@
       <c r="C119" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","app - dz",0.75),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>94</v>
       </c>
@@ -2329,8 +2818,12 @@
       <c r="C120" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","durere localizare abdominala",0.75),</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>94</v>
       </c>
@@ -2340,8 +2833,12 @@
       <c r="C121" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","durere difuza",0.75),</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>94</v>
       </c>
@@ -2351,8 +2848,12 @@
       <c r="C122" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","durere localizata fid",0.75),</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>94</v>
       </c>
@@ -2362,8 +2863,12 @@
       <c r="C123" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","greata",0.75),</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>94</v>
       </c>
@@ -2373,8 +2878,12 @@
       <c r="C124" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","varsaturi",0.75),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>94</v>
       </c>
@@ -2384,8 +2893,12 @@
       <c r="C125" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","distensie abdominala",0.75),</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>94</v>
       </c>
@@ -2395,8 +2908,12 @@
       <c r="C126" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","febra",0.75),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>94</v>
       </c>
@@ -2406,8 +2923,12 @@
       <c r="C127" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","subfebrilitati",0.75),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>94</v>
       </c>
@@ -2417,8 +2938,12 @@
       <c r="C128" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","constipatie",0.75),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>94</v>
       </c>
@@ -2428,8 +2953,12 @@
       <c r="C129" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa","diaree",0.75),</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>94</v>
       </c>
@@ -2439,8 +2968,12 @@
       <c r="C130" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D193" si="2">"("""&amp;A130&amp;""","""&amp;B130&amp;""","&amp;C130&amp;"),"</f>
+        <v>("apa","inapetenta",0.75),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>105</v>
       </c>
@@ -2450,8 +2983,12 @@
       <c r="C131" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D131" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>105</v>
       </c>
@@ -2461,8 +2998,12 @@
       <c r="C132" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","ahc - boli autoimune",0.75),</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>105</v>
       </c>
@@ -2472,8 +3013,12 @@
       <c r="C133" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","ahc - dz",0.75),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>105</v>
       </c>
@@ -2483,8 +3028,12 @@
       <c r="C134" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","app - consum droguri",0.75),</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>105</v>
       </c>
@@ -2494,8 +3043,12 @@
       <c r="C135" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","app - consum alcool",0.75),</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>105</v>
       </c>
@@ -2505,8 +3058,12 @@
       <c r="C136" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","app - ima",0.75),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>105</v>
       </c>
@@ -2516,8 +3073,12 @@
       <c r="C137" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","app - pierdere in greutate",0.75),</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>105</v>
       </c>
@@ -2527,8 +3088,12 @@
       <c r="C138" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","app - infectie",0.75),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>105</v>
       </c>
@@ -2538,8 +3103,12 @@
       <c r="C139" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","app - dz",0.75),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>105</v>
       </c>
@@ -2549,8 +3118,12 @@
       <c r="C140" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","nerespectare tratament dz",0.75),</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>105</v>
       </c>
@@ -2560,8 +3133,12 @@
       <c r="C141" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","polidipsie",0.75),</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>105</v>
       </c>
@@ -2571,8 +3148,12 @@
       <c r="C142" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","poliurie",0.75),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>105</v>
       </c>
@@ -2582,8 +3163,12 @@
       <c r="C143" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","fatigabilitate",0.75),</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>105</v>
       </c>
@@ -2593,8 +3178,12 @@
       <c r="C144" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","greata",0.75),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>105</v>
       </c>
@@ -2604,8 +3193,12 @@
       <c r="C145" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","varsaturi",0.75),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>105</v>
       </c>
@@ -2615,8 +3208,12 @@
       <c r="C146" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","dureri abdominale abdominala",0.75),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>105</v>
       </c>
@@ -2626,8 +3223,12 @@
       <c r="C147" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","dureri difuze",0.75),</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>105</v>
       </c>
@@ -2637,8 +3238,12 @@
       <c r="C148" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","transpiratie",0.75),</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>105</v>
       </c>
@@ -2648,8 +3253,12 @@
       <c r="C149" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","modificarea starii de constienta",0.75),</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>105</v>
       </c>
@@ -2659,8 +3268,12 @@
       <c r="C150" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","febra",0.75),</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>105</v>
       </c>
@@ -2670,8 +3283,12 @@
       <c r="C151" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","frison",0.75),</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>105</v>
       </c>
@@ -2681,8 +3298,12 @@
       <c r="C152" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","durere localizare toracica",0.75),</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>105</v>
       </c>
@@ -2692,8 +3313,12 @@
       <c r="C153" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","dispnee",0.75),</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>105</v>
       </c>
@@ -2703,8 +3328,12 @@
       <c r="C154" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","tahipnee",0.75),</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>105</v>
       </c>
@@ -2714,8 +3343,12 @@
       <c r="C155" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","hipotensiune",0.75),</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>105</v>
       </c>
@@ -2725,8 +3358,12 @@
       <c r="C156" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","tahicardie",0.75),</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>105</v>
       </c>
@@ -2736,8 +3373,12 @@
       <c r="C157" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","halena cetonica",0.75),</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>105</v>
       </c>
@@ -2747,8 +3388,12 @@
       <c r="C158" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","scaderea reflexelor",0.75),</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>105</v>
       </c>
@@ -2758,8 +3403,12 @@
       <c r="C159" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>("cdz","respiratie Kussmaul",0.75),</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>123</v>
       </c>
@@ -2769,8 +3418,12 @@
       <c r="C160" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>123</v>
       </c>
@@ -2780,8 +3433,12 @@
       <c r="C161" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","debut simptomalogie - acut",0.75),</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>123</v>
       </c>
@@ -2791,8 +3448,12 @@
       <c r="C162" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","app - consum droguri",0.75),</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>123</v>
       </c>
@@ -2802,8 +3463,12 @@
       <c r="C163" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","app - anemie hemolitica",0.75),</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>123</v>
       </c>
@@ -2813,8 +3478,12 @@
       <c r="C164" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","app - tromboza venoasa profunda",0.75),</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>123</v>
       </c>
@@ -2824,8 +3493,12 @@
       <c r="C165" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","app - dislipidemie",0.75),</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>123</v>
       </c>
@@ -2835,8 +3508,12 @@
       <c r="C166" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","app - edeme",0.75),</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>123</v>
       </c>
@@ -2846,8 +3523,12 @@
       <c r="C167" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","dispnee",0.75),</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>123</v>
       </c>
@@ -2857,8 +3538,12 @@
       <c r="C168" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","convulsii",0.75),</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>123</v>
       </c>
@@ -2868,8 +3553,12 @@
       <c r="C169" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","sincopa",0.75),</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>123</v>
       </c>
@@ -2879,8 +3568,12 @@
       <c r="C170" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","durere abdominala",0.75),</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>123</v>
       </c>
@@ -2890,8 +3583,12 @@
       <c r="C171" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","febra",0.75),</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>123</v>
       </c>
@@ -2901,8 +3598,12 @@
       <c r="C172" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","tuse",0.75),</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>123</v>
       </c>
@@ -2912,8 +3613,12 @@
       <c r="C173" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","wheezing",0.75),</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>123</v>
       </c>
@@ -2923,8 +3628,12 @@
       <c r="C174" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","tahipnee",0.75),</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>123</v>
       </c>
@@ -2934,8 +3643,12 @@
       <c r="C175" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","raluri crepitante",0.75),</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>123</v>
       </c>
@@ -2945,8 +3658,12 @@
       <c r="C176" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","accentuarea zgomotului II",0.75),</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>123</v>
       </c>
@@ -2956,8 +3673,12 @@
       <c r="C177" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","tahicardie",0.75),</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>123</v>
       </c>
@@ -2967,8 +3688,12 @@
       <c r="C178" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","galop III sau IV",0.75),</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>123</v>
       </c>
@@ -2978,8 +3703,12 @@
       <c r="C179" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","tromboflebita",0.75),</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>123</v>
       </c>
@@ -2989,8 +3718,12 @@
       <c r="C180" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","edeme membre inferioare",0.75),</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>123</v>
       </c>
@@ -3000,8 +3733,12 @@
       <c r="C181" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","cianoza",0.75),</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>123</v>
       </c>
@@ -3011,8 +3748,12 @@
       <c r="C182" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","durere toracica",0.75),</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>123</v>
       </c>
@@ -3022,8 +3763,12 @@
       <c r="C183" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","durere severa",0.75),</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>123</v>
       </c>
@@ -3033,8 +3778,12 @@
       <c r="C184" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","hemoptizie",0.75),</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>123</v>
       </c>
@@ -3044,8 +3793,12 @@
       <c r="C185" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","anxietate",0.75),</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>123</v>
       </c>
@@ -3055,8 +3808,12 @@
       <c r="C186" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","transpiratii",0.75),</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>123</v>
       </c>
@@ -3066,8 +3823,12 @@
       <c r="C187" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","palpitatii",0.75),</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>123</v>
       </c>
@@ -3077,8 +3838,12 @@
       <c r="C188" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>("tep","ameteli",0.75),</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>139</v>
       </c>
@@ -3088,8 +3853,12 @@
       <c r="C189" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>("ars I","arsura grad I",0.75),</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>139</v>
       </c>
@@ -3099,8 +3868,12 @@
       <c r="C190" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>("ars I","leziune eritematoasa",0.75),</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>139</v>
       </c>
@@ -3110,8 +3883,12 @@
       <c r="C191" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>("ars I","absenta flictenelor",0.75),</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>139</v>
       </c>
@@ -3121,8 +3898,12 @@
       <c r="C192" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>("ars I","durere",0.75),</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>144</v>
       </c>
@@ -3132,8 +3913,12 @@
       <c r="C193" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>("ars II","arsura grad II",0.75),</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>144</v>
       </c>
@@ -3143,8 +3928,12 @@
       <c r="C194" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D194" t="str">
+        <f t="shared" ref="D194:D238" si="3">"("""&amp;A194&amp;""","""&amp;B194&amp;""","&amp;C194&amp;"),"</f>
+        <v>("ars II","durere",0.75),</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>144</v>
       </c>
@@ -3154,8 +3943,12 @@
       <c r="C195" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D195" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars II","leziune eritematoasa",0.75),</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>144</v>
       </c>
@@ -3165,8 +3958,12 @@
       <c r="C196" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars II","flictene",0.75),</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>147</v>
       </c>
@@ -3176,8 +3973,12 @@
       <c r="C197" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars III","arsura grad III",0.75),</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>147</v>
       </c>
@@ -3187,8 +3988,12 @@
       <c r="C198" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars III","durere atenuata",0.75),</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>147</v>
       </c>
@@ -3198,8 +4003,12 @@
       <c r="C199" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars III","leziune alba / neagra",0.75),</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>151</v>
       </c>
@@ -3209,8 +4018,12 @@
       <c r="C200" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars IV","arsura grad IV",0.75),</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>151</v>
       </c>
@@ -3220,8 +4033,12 @@
       <c r="C201" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars IV","leziune tegumentara",0.75),</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
         <v>151</v>
       </c>
@@ -3231,8 +4048,12 @@
       <c r="C202" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>("ars IV","interesarea muschilor, fasciilor, oase, alte structuri",0.75),</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>155</v>
       </c>
@@ -3242,8 +4063,12 @@
       <c r="C203" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>155</v>
       </c>
@@ -3253,8 +4078,12 @@
       <c r="C204" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","app - osteoporoza",0.75),</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>155</v>
       </c>
@@ -3264,8 +4093,12 @@
       <c r="C205" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","app - sedentarism",0.75),</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>155</v>
       </c>
@@ -3275,8 +4108,12 @@
       <c r="C206" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","app - hipocalcemie",0.75),</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>155</v>
       </c>
@@ -3286,8 +4123,12 @@
       <c r="C207" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","app - tumori osoase",0.75),</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>155</v>
       </c>
@@ -3297,8 +4138,12 @@
       <c r="C208" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","deformare in dos de furculita radius",0.75),</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>155</v>
       </c>
@@ -3308,8 +4153,12 @@
       <c r="C209" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","scurtarea membrului superior",0.75),</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>155</v>
       </c>
@@ -3319,8 +4168,12 @@
       <c r="C210" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","pierderea mobilitatii membrului'",0.75),</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>155</v>
       </c>
@@ -3330,8 +4183,12 @@
       <c r="C211" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","tumefactie",0.75),</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>155</v>
       </c>
@@ -3341,8 +4198,12 @@
       <c r="C212" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","durere",0.75),</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>155</v>
       </c>
@@ -3352,8 +4213,12 @@
       <c r="C213" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura distala radius","crepitatii osoase",0.75),</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
         <v>165</v>
       </c>
@@ -3363,8 +4228,12 @@
       <c r="C214" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>165</v>
       </c>
@@ -3374,8 +4243,12 @@
       <c r="C215" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","app - osteoporoza",0.75),</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
         <v>165</v>
       </c>
@@ -3385,8 +4258,12 @@
       <c r="C216" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","app - sedentarism",0.75),</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
         <v>165</v>
       </c>
@@ -3396,8 +4273,12 @@
       <c r="C217" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","app - hipocalcemie",0.75),</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
         <v>165</v>
       </c>
@@ -3407,8 +4288,12 @@
       <c r="C218" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","app - tumori osoase",0.75),</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
         <v>165</v>
       </c>
@@ -3418,8 +4303,12 @@
       <c r="C219" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","rotatie externa si adductie membru inferior",0.75),</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
         <v>165</v>
       </c>
@@ -3429,8 +4318,12 @@
       <c r="C220" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","scurtarea membrului inferior",0.75),</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
         <v>165</v>
       </c>
@@ -3440,8 +4333,12 @@
       <c r="C221" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","pierderea mobilitatii membrului'",0.75),</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
         <v>165</v>
       </c>
@@ -3451,8 +4348,12 @@
       <c r="C222" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","tumefactie",0.75),</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
         <v>165</v>
       </c>
@@ -3462,8 +4363,12 @@
       <c r="C223" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","durere",0.75),</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
         <v>165</v>
       </c>
@@ -3473,8 +4378,12 @@
       <c r="C224" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>("Fractura col femural","crepitatii osoase",0.75),</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
         <v>168</v>
       </c>
@@ -3484,8 +4393,12 @@
       <c r="C225" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","cmv - risc intoxicatie cu co",0.75),</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>168</v>
       </c>
@@ -3495,8 +4408,12 @@
       <c r="C226" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","cefalee",0.75),</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
         <v>168</v>
       </c>
@@ -3506,8 +4423,12 @@
       <c r="C227" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","fatigabilitate",0.75),</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>168</v>
       </c>
@@ -3517,8 +4438,12 @@
       <c r="C228" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","greturi",0.75),</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
         <v>168</v>
       </c>
@@ -3528,8 +4453,12 @@
       <c r="C229" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","varsaturi",0.75),</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>168</v>
       </c>
@@ -3539,104 +4468,264 @@
       <c r="C230" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","alterarea starii de constienta",0.75),</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","ameteli",0.75),</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>25</v>
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>("Intoxicatie co","dispnee",0.75),</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>("litiaza renala","barbat",0.5),</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>("litiaza renala","ahc - litiaza renala",0.75),</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>("litiaza renala","app - litiaza renala",0.75),</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>("litiaza renala","app - insuficienta renala",0.75),</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>("litiaza renala","app - infectii urinare",0.75),</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>175</v>
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>("litiaza renala","dezhidratare",0.75),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17">
+        <v>100</v>
+      </c>
+      <c r="C1" s="18">
+        <f>B1/SUM($B$1:$B$6)</f>
+        <v>3.5398230088495575E-2</v>
+      </c>
+      <c r="D1" s="17">
+        <v>9</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"("""&amp;A1&amp;""","&amp;D1&amp;","&amp;C1&amp;"),"</f>
+        <v>("ima",9,0,0353982300884956),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="18">
+        <f t="shared" ref="C2:C6" si="0">B2/SUM($B$1:$B$6)</f>
+        <v>0.35398230088495575</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E6" si="1">"("""&amp;A2&amp;""","&amp;D2&amp;","&amp;C2&amp;"),"</f>
+        <v>("avc",8,0,353982300884956),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="18">
+        <f t="shared" si="0"/>
+        <v>0.35398230088495575</v>
+      </c>
+      <c r="D3" s="17">
+        <v>7</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira",7,0,353982300884956),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="17">
+        <v>500</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa",5,0,176991150442478),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="17">
+        <v>200</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="0"/>
+        <v>7.0796460176991149E-2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>("cdz",6,0,0707964601769911),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="17">
+        <v>25</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="D6" s="17">
+        <v>10</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>("tep",10,0,00884955752212389),</v>
       </c>
     </row>
   </sheetData>

--- a/medhack/Disease.xlsx
+++ b/medhack/Disease.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="222">
   <si>
     <t>ima</t>
   </si>
@@ -553,13 +555,151 @@
   </si>
   <si>
     <t>0.75</t>
+  </si>
+  <si>
+    <t>litiaza biliara</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>app - statine</t>
+  </si>
+  <si>
+    <t>app - angiocolita</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>durere localizata in hipocondrul drept</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>durere caracter colicativ</t>
+  </si>
+  <si>
+    <t>icter</t>
+  </si>
+  <si>
+    <t>hemofilie</t>
+  </si>
+  <si>
+    <t>ahc - hemofilie</t>
+  </si>
+  <si>
+    <t>hemoragii spontane</t>
+  </si>
+  <si>
+    <t>echimoze</t>
+  </si>
+  <si>
+    <t>hematoame intramusculare</t>
+  </si>
+  <si>
+    <t>hemoragii cutanate</t>
+  </si>
+  <si>
+    <t>hemoragii mucoase</t>
+  </si>
+  <si>
+    <t>hemartroza</t>
+  </si>
+  <si>
+    <t>hemoragii viscerale</t>
+  </si>
+  <si>
+    <t>hemoragii cerebrale</t>
+  </si>
+  <si>
+    <t>hematurie</t>
+  </si>
+  <si>
+    <t>epistaxis</t>
+  </si>
+  <si>
+    <t>gingivoragii</t>
+  </si>
+  <si>
+    <t>anemie</t>
+  </si>
+  <si>
+    <t>semne de soc</t>
+  </si>
+  <si>
+    <t>semne de HIC</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>pna</t>
+  </si>
+  <si>
+    <t>app - obstructii ale tractului urinar</t>
+  </si>
+  <si>
+    <t>app - reflux vezico-ureteral</t>
+  </si>
+  <si>
+    <t>app - deficit imun</t>
+  </si>
+  <si>
+    <t>app - tulburari neurogene ale vezicii urinare</t>
+  </si>
+  <si>
+    <t>stare generala alterata</t>
+  </si>
+  <si>
+    <t>durere lombare</t>
+  </si>
+  <si>
+    <t>semn giordano +</t>
+  </si>
+  <si>
+    <t>disurie</t>
+  </si>
+  <si>
+    <t>nicturie</t>
+  </si>
+  <si>
+    <t>polakiurie</t>
+  </si>
+  <si>
+    <t>urina tulbure</t>
+  </si>
+  <si>
+    <t>HTA</t>
+  </si>
+  <si>
+    <t>tamponada cardiaca</t>
+  </si>
+  <si>
+    <t>durere iradianta</t>
+  </si>
+  <si>
+    <t>asurzirea zgomotelor cardiace</t>
+  </si>
+  <si>
+    <t>distensia venelor jugulare</t>
+  </si>
+  <si>
+    <t>cistita</t>
+  </si>
+  <si>
+    <t>incontinenta urinara</t>
+  </si>
+  <si>
+    <t>durere localizare hipogastru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -579,14 +719,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +811,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC27BA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -705,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,7 +880,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4601,135 +4787,1664 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E1:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"("""&amp;A1&amp;""","""&amp;B1&amp;""","&amp;C1&amp;"),"</f>
+        <v>("litiaza biliara","app - obezitate",0.3),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">"("""&amp;A2&amp;""","""&amp;B2&amp;""","&amp;C2&amp;"),"</f>
+        <v>("litiaza biliara","app - statine",0.75),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","app - anemie hemolitica",0.75),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","app - angiocolita",0.75),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","durere severa",0.9),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","durere localizata in hipocondrul drept",0.95),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","durere caracter colicativ",0.95),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","greata",0.95),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","varsaturi",0.95),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara","icter",0.95),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","ahc - hemofilie",0.9),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hemoragii spontane",0.9),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","echimoze",0.9),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hematoame intramusculare",0.9),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hemoragii cutanate",0.9),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hemoragii mucoase",0.9),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hemartroza",0.9),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hemoragii viscerale",0.9),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hemoragii cerebrale",0.9),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hematurie",0.9),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","epistaxis",0.9),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","gingivoragii",0.9),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","anemie",0.9),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","tahicardie",0.9),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","hipotensiune",0.9),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","semne de soc",0.9),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","semne de HIC",0.9),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie","tumefactie",0.7),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","app - dz",0.3),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","app - obstructii ale tractului urinar",0.9),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","app - reflux vezico-ureteral",0.9),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","app - deficit imun",0.9),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","app - tulburari neurogene ale vezicii urinare",0.9),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","febra",0.9),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","frison",0.9),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","transpiratii",0.5),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","cefalee",0.3),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","greturi",0.3),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","varsaturi",0.3),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","stare generala alterata",0.3),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","durere lombare",0.95),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","semn giordano +",0.9),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","disurie",0.5),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","nicturie",0.5),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","polakiurie",0.5),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","urina tulbure",0.5),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","hematurie",0.9),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna","HTA",0.5),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","dispnee",0.9),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","tahipnee",0.9),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","anxietate",0.9),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","fatigabilitate",0.9),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","hipotensiune",0.9),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","durere toracica",0.9),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","durere iradianta",0.7),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","ameteli",0.7),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","sincopa",0.7),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","alterarea starii de constienta",0.7),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","asurzirea zgomotelor cardiace",0.9),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca","distensia venelor jugulare",0.9),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>("cistita","disurie",0.95),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>("cistita","polakiurie",0.95),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>("cistita","incontinenta urinara",0.9),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>("cistita","hematurie",0.9),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>("cistita","durere localizare hipogastru",0.95),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="22">
         <v>100</v>
       </c>
-      <c r="C1" s="18">
-        <f>B1/SUM($B$1:$B$6)</f>
-        <v>3.5398230088495575E-2</v>
-      </c>
-      <c r="D1" s="17">
+      <c r="C1" s="22">
+        <f>B1/SUM($B:$B)</f>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D1" s="22">
         <v>9</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="23" t="str">
         <f>"("""&amp;A1&amp;""","&amp;D1&amp;","&amp;C1&amp;"),"</f>
-        <v>("ima",9,0,0353982300884956),</v>
+        <v>("ima",9,0,0255427841634738),</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="22">
         <v>1000</v>
       </c>
-      <c r="C2" s="18">
-        <f t="shared" ref="C2:C6" si="0">B2/SUM($B$1:$B$6)</f>
-        <v>0.35398230088495575</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="C2" s="22">
+        <f t="shared" ref="C2:C14" si="0">B2/SUM($B:$B)</f>
+        <v>0.2554278416347382</v>
+      </c>
+      <c r="D2" s="22">
         <v>8</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E6" si="1">"("""&amp;A2&amp;""","&amp;D2&amp;","&amp;C2&amp;"),"</f>
-        <v>("avc",8,0,353982300884956),</v>
+      <c r="E2" s="23" t="str">
+        <f t="shared" ref="E2:E19" si="1">"("""&amp;A2&amp;""","&amp;D2&amp;","&amp;C2&amp;"),"</f>
+        <v>("avc",8,0,255427841634738),</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="22">
         <v>1000</v>
       </c>
-      <c r="C3" s="18">
-        <f t="shared" si="0"/>
-        <v>0.35398230088495575</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="C3" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2554278416347382</v>
+      </c>
+      <c r="D3" s="22">
         <v>7</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>("ira",7,0,353982300884956),</v>
+      <c r="E3" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("ira",7,0,255427841634738),</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="22">
         <v>500</v>
       </c>
-      <c r="C4" s="18">
-        <f t="shared" si="0"/>
-        <v>0.17699115044247787</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1277139208173691</v>
+      </c>
+      <c r="D4" s="22">
         <v>5</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>("apa",5,0,176991150442478),</v>
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("apa",5,0,127713920817369),</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="22">
         <v>200</v>
       </c>
-      <c r="C5" s="18">
-        <f t="shared" si="0"/>
-        <v>7.0796460176991149E-2</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="22">
+        <f t="shared" si="0"/>
+        <v>5.108556832694764E-2</v>
+      </c>
+      <c r="D5" s="22">
         <v>6</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>("cdz",6,0,0707964601769911),</v>
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("cdz",6,0,0510855683269476),</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="22">
         <v>25</v>
       </c>
-      <c r="C6" s="18">
-        <f t="shared" si="0"/>
-        <v>8.8495575221238937E-3</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="22">
+        <f t="shared" si="0"/>
+        <v>6.3856960408684551E-3</v>
+      </c>
+      <c r="D6" s="22">
         <v>10</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>("tep",10,0,00884955752212389),</v>
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("tep",10,0,00638569604086846),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="22">
+        <v>100</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>3</v>
+      </c>
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("ars I",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="22">
+        <v>100</v>
+      </c>
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("ars II",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="22">
+        <v>100</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("ars III",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="22">
+        <v>100</v>
+      </c>
+      <c r="C10" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D10" s="22">
+        <v>3</v>
+      </c>
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("ars IV",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="22">
+        <v>100</v>
+      </c>
+      <c r="C11" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("Fractura distala radius",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="22">
+        <v>100</v>
+      </c>
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3</v>
+      </c>
+      <c r="E12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("Fractura col femural",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="22">
+        <v>100</v>
+      </c>
+      <c r="C13" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("Intoxicatie co",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="22">
+        <v>100</v>
+      </c>
+      <c r="C14" s="22">
+        <f t="shared" si="0"/>
+        <v>2.554278416347382E-2</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3</v>
+      </c>
+      <c r="E14" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>("litiaza renala",3,0,0255427841634738),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="19">
+        <v>60</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+      <c r="E15" s="23" t="str">
+        <f>"("""&amp;A15&amp;""","&amp;C15&amp;","&amp;B15&amp;"),"</f>
+        <v>("litiaza biliara",3,60),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="19">
+        <v>10</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="23" t="str">
+        <f t="shared" ref="E16:E19" si="2">"("""&amp;A16&amp;""","&amp;C16&amp;","&amp;B16&amp;"),"</f>
+        <v>("hemofilie",5,10),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="19">
+        <v>20</v>
+      </c>
+      <c r="C17" s="19">
+        <v>4</v>
+      </c>
+      <c r="E17" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>("pna",4,20),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="19">
+        <v>50</v>
+      </c>
+      <c r="C18" s="19">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>("tamponada cardiaca",10,50),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="19">
+        <v>150</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>("cistita",2,150),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17">
+        <v>100</v>
+      </c>
+      <c r="C1" s="17">
+        <v>9</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"("""&amp;A1&amp;""","&amp;C1&amp;","&amp;B1&amp;"),"</f>
+        <v>("ima",9,100),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="17">
+        <v>8</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D19" si="0">"("""&amp;A2&amp;""","&amp;C2&amp;","&amp;B2&amp;"),"</f>
+        <v>("avc",8,1000),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="17">
+        <v>7</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>("ira",7,1000),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="17">
+        <v>500</v>
+      </c>
+      <c r="C4" s="17">
+        <v>5</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>("apa",5,500),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="17">
+        <v>200</v>
+      </c>
+      <c r="C5" s="17">
+        <v>6</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>("cdz",6,200),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="17">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>("tep",10,25),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="20">
+        <v>100</v>
+      </c>
+      <c r="C7" s="20">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>("ars I",3,100),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="20">
+        <v>100</v>
+      </c>
+      <c r="C8" s="20">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>("ars II",3,100),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="20">
+        <v>100</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>("ars III",3,100),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="20">
+        <v>100</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>("ars IV",3,100),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="20">
+        <v>100</v>
+      </c>
+      <c r="C11" s="20">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>("Fractura distala radius",3,100),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="20">
+        <v>100</v>
+      </c>
+      <c r="C12" s="20">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>("Fractura col femural",3,100),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="20">
+        <v>100</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>("Intoxicatie co",3,100),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="20">
+        <v>100</v>
+      </c>
+      <c r="C14" s="20">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza renala",3,100),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="17">
+        <v>60</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>("litiaza biliara",3,60),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="17">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>("hemofilie",5,10),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="17">
+        <v>20</v>
+      </c>
+      <c r="C17" s="17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>("pna",4,20),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="17">
+        <v>50</v>
+      </c>
+      <c r="C18" s="17">
+        <v>10</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>("tamponada cardiaca",10,50),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="17">
+        <v>150</v>
+      </c>
+      <c r="C19" s="17">
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>("cistita",2,150),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>